--- a/FCI 21-011/fCI-080.xlsx
+++ b/FCI 21-011/fCI-080.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BE32\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etudes20\PycharmProjects\Trial\FCI 21-011\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3110A5D8-89D3-457D-AA37-1A2998B83E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42746AC-5B49-4311-884D-66184BC73D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$105</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -78,9 +81,6 @@
     <t>21464/199</t>
   </si>
   <si>
-    <t>21464/178</t>
-  </si>
-  <si>
     <t>21464/1010</t>
   </si>
   <si>
@@ -123,9 +123,6 @@
     <t>21464/160</t>
   </si>
   <si>
-    <t>21464/159</t>
-  </si>
-  <si>
     <t>21464/419771</t>
   </si>
   <si>
@@ -373,6 +370,12 @@
   </si>
   <si>
     <t>FCI</t>
+  </si>
+  <si>
+    <t>21464/0159</t>
+  </si>
+  <si>
+    <t>21464/178_1</t>
   </si>
 </sst>
 </file>
@@ -565,107 +568,7 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{FFB7CD0F-E2F4-4AC6-9EA6-0EB2EC1A8E06}"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{2B213443-3369-43C4-8922-66404F083ABF}"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -992,10 +895,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,845 +912,852 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="B17" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="B19" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="B20" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="B21" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="B24" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="B25" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="B26" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="B35" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="6" t="s">
+      <c r="B36" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="B39" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="6" t="s">
+      <c r="B43" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="6" t="s">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="6" t="s">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="B47" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="6" t="s">
+      <c r="B80" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B80" s="6" t="s">
+      <c r="B82" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+      <c r="B86" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B85" s="6" t="s">
+      <c r="B88" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B88" s="6" t="s">
+      <c r="B90" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
+      <c r="B98" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B99" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
+      <c r="B102" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B103" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B102" s="6" t="s">
+    <row r="105" spans="1:2" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" s="10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:B105" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="21464/178"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="A22:A27 D80:D1048576">
     <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
